--- a/public/excel/AIOC.xlsx
+++ b/public/excel/AIOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UI看板数据" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
-<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData"/>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,7 +494,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,12 +522,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,7 +1269,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1303,16 +1293,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1321,89 +1311,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1500,9 +1490,6 @@
     <xf numFmtId="178" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1512,9 +1499,6 @@
     <xf numFmtId="177" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1533,12 +1517,6 @@
     <xf numFmtId="178" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1551,18 +1529,12 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1656,9 +1628,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1692,13 +1661,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1731,16 +1700,16 @@
     <xf numFmtId="177" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1752,10 +1721,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1791,9 +1760,6 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1805,12 +1771,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2143,7 +2103,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M61" sqref="M61"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" zeroHeight="1"/>
@@ -2176,7 +2136,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="102"/>
+      <c r="J1" s="95"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -2198,7 +2158,7 @@
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
-      <c r="J2" s="103"/>
+      <c r="J2" s="96"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A3" s="18" t="s">
@@ -2212,7 +2172,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
-      <c r="J3" s="104"/>
+      <c r="J3" s="97"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2244,7 +2204,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
-      <c r="J4" s="105"/>
+      <c r="J4" s="98"/>
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:20">
       <c r="A5" s="24" t="s">
@@ -2271,8 +2231,8 @@
       <c r="H5" s="31">
         <v>25</v>
       </c>
-      <c r="I5" s="106"/>
-      <c r="J5" s="107"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="100"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2286,32 +2246,32 @@
     </row>
     <row r="6" ht="16" customHeight="1" spans="1:16380">
       <c r="A6" s="24"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="108"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="101"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="109" t="s">
+      <c r="L6" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="110"/>
+      <c r="M6" s="103"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -2323,30 +2283,30 @@
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:16380">
       <c r="A7" s="24"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="108"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="101"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="112"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -2358,34 +2318,34 @@
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:16380">
       <c r="A8" s="24"/>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>124</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="40">
         <v>10.51</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="108"/>
+      <c r="J8" s="101"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="112"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="105"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -2397,32 +2357,32 @@
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:16380">
       <c r="A9" s="24"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="108"/>
+      <c r="J9" s="101"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="112"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="105"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -2434,32 +2394,32 @@
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:16380">
       <c r="A10" s="24"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="33" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="108"/>
+      <c r="J10" s="101"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="112"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="105"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -2471,34 +2431,34 @@
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:16380">
       <c r="A11" s="24"/>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="36">
         <v>1280</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="40">
         <v>3.15</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="108"/>
+      <c r="J11" s="101"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="112"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="105"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2510,32 +2470,32 @@
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:16380">
       <c r="A12" s="24"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="108"/>
+      <c r="J12" s="101"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="112"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="105"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2547,32 +2507,32 @@
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:16380">
       <c r="A13" s="24"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="33" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="108"/>
+      <c r="J13" s="101"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="112"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="105"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -2584,26 +2544,26 @@
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:16380">
       <c r="A14" s="24"/>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="36">
         <v>9248</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="113"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="106"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="112"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="105"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2615,24 +2575,24 @@
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:16380">
       <c r="A15" s="24"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="113"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="106"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="112"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="105"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2644,24 +2604,24 @@
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:16380">
       <c r="A16" s="24"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="113"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="106"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="112"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="105"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2673,29 +2633,29 @@
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:16380">
       <c r="A17" s="24"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="36">
         <v>4248</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="40">
         <f>D17/D14*100</f>
         <v>45.9342560553633</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="113"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="106"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="112"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="105"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -2707,26 +2667,26 @@
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:16380">
       <c r="A18" s="24"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="113"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="106"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="112"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="105"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2738,26 +2698,26 @@
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:16380">
       <c r="A19" s="24"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="33" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="113"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="106"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="112"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="105"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -2769,29 +2729,29 @@
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:16380">
       <c r="A20" s="24"/>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="43">
+      <c r="D20" s="36">
         <v>3000</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="40">
         <f>D20/D14*100</f>
         <v>32.439446366782</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="113"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="106"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="112"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="105"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -2803,26 +2763,26 @@
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:16380">
       <c r="A21" s="24"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="114"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="107"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="112"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="105"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -2834,26 +2794,26 @@
     </row>
     <row r="22" ht="16" customHeight="1" spans="1:16380">
       <c r="A22" s="24"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="114"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="107"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="112"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="105"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2865,29 +2825,29 @@
     </row>
     <row r="23" ht="16" customHeight="1" spans="1:16380">
       <c r="A23" s="24"/>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="36">
         <v>2000</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="40">
         <f>D23/D14*100</f>
         <v>21.6262975778547</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="113"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="106"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="112"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="105"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2897,121 +2857,121 @@
       <c r="T23" s="1"/>
       <c r="XEZ23"/>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:20">
+    <row r="24" s="3" customFormat="1" ht="14.25" spans="1:20">
       <c r="A24" s="24"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="33" t="s">
+      <c r="B24" s="37"/>
+      <c r="C24" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="115"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="108"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="117"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="110"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="123"/>
-      <c r="T24" s="123"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
     </row>
     <row r="25" s="3" customFormat="1" ht="14.25" spans="1:20">
-      <c r="A25" s="51"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="55" t="s">
+      <c r="F25" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="118"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="111"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="123"/>
+      <c r="Q25" s="116"/>
+      <c r="R25" s="116"/>
+      <c r="S25" s="116"/>
+      <c r="T25" s="116"/>
     </row>
     <row r="26" s="3" customFormat="1" ht="20" customHeight="1" spans="1:20">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="61" t="s">
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="62"/>
-      <c r="I26" s="58" t="s">
+      <c r="H26" s="56"/>
+      <c r="I26" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="60"/>
+      <c r="J26" s="54"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="123"/>
-      <c r="S26" s="123"/>
-      <c r="T26" s="123"/>
+      <c r="Q26" s="116"/>
+      <c r="R26" s="116"/>
+      <c r="S26" s="116"/>
+      <c r="T26" s="116"/>
     </row>
     <row r="27" s="3" customFormat="1" ht="20" customHeight="1" spans="1:20">
-      <c r="A27" s="63"/>
-      <c r="B27" s="64" t="s">
+      <c r="A27" s="57"/>
+      <c r="B27" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66" t="s">
+      <c r="D27" s="59"/>
+      <c r="E27" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="67" t="s">
+      <c r="F27" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="68" t="s">
+      <c r="G27" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="69" t="s">
+      <c r="H27" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="I27" s="73" t="s">
+      <c r="I27" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="J27" s="119" t="s">
+      <c r="J27" s="112" t="s">
         <v>34</v>
       </c>
       <c r="K27" s="1"/>
@@ -3020,41 +2980,41 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="123"/>
-      <c r="R27" s="123"/>
-      <c r="S27" s="123"/>
-      <c r="T27" s="123"/>
+      <c r="Q27" s="116"/>
+      <c r="R27" s="116"/>
+      <c r="S27" s="116"/>
+      <c r="T27" s="116"/>
     </row>
     <row r="28" ht="16" customHeight="1" spans="1:20">
-      <c r="A28" s="63"/>
-      <c r="B28" s="64" t="s">
+      <c r="A28" s="57"/>
+      <c r="B28" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="70">
+      <c r="E28" s="64">
         <v>425</v>
       </c>
-      <c r="F28" s="71">
+      <c r="F28" s="65">
         <v>4100</v>
       </c>
-      <c r="G28" s="72">
+      <c r="G28" s="66">
         <f t="shared" ref="G28:I28" si="0">E28*30</f>
         <v>12750</v>
       </c>
-      <c r="H28" s="71">
+      <c r="H28" s="65">
         <f t="shared" si="0"/>
         <v>123000</v>
       </c>
-      <c r="I28" s="72">
+      <c r="I28" s="66">
         <f>G28*12</f>
         <v>153000</v>
       </c>
-      <c r="J28" s="71">
+      <c r="J28" s="65">
         <f>H28*12</f>
         <v>1476000</v>
       </c>
@@ -3070,35 +3030,35 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" ht="16" customHeight="1" spans="1:20">
-      <c r="A29" s="63"/>
-      <c r="B29" s="64" t="s">
+      <c r="A29" s="57"/>
+      <c r="B29" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="70">
+      <c r="E29" s="64">
         <v>426</v>
       </c>
-      <c r="F29" s="71">
+      <c r="F29" s="65">
         <v>4100</v>
       </c>
-      <c r="G29" s="72">
+      <c r="G29" s="66">
         <f t="shared" ref="G29:G45" si="1">E29*30</f>
         <v>12780</v>
       </c>
-      <c r="H29" s="71">
+      <c r="H29" s="65">
         <f t="shared" ref="H29:H45" si="2">F29*30</f>
         <v>123000</v>
       </c>
-      <c r="I29" s="72">
+      <c r="I29" s="66">
         <f t="shared" ref="I29:I45" si="3">G29*12</f>
         <v>153360</v>
       </c>
-      <c r="J29" s="71">
+      <c r="J29" s="65">
         <f t="shared" ref="J29:J45" si="4">H29*12</f>
         <v>1476000</v>
       </c>
@@ -3114,35 +3074,35 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" ht="16" customHeight="1" spans="1:20">
-      <c r="A30" s="63"/>
-      <c r="B30" s="64" t="s">
+      <c r="A30" s="57"/>
+      <c r="B30" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="70">
+      <c r="E30" s="64">
         <v>427</v>
       </c>
-      <c r="F30" s="71">
+      <c r="F30" s="65">
         <v>4100</v>
       </c>
-      <c r="G30" s="72">
+      <c r="G30" s="66">
         <f t="shared" si="1"/>
         <v>12810</v>
       </c>
-      <c r="H30" s="71">
+      <c r="H30" s="65">
         <f t="shared" si="2"/>
         <v>123000</v>
       </c>
-      <c r="I30" s="72">
+      <c r="I30" s="66">
         <f t="shared" si="3"/>
         <v>153720</v>
       </c>
-      <c r="J30" s="71">
+      <c r="J30" s="65">
         <f t="shared" si="4"/>
         <v>1476000</v>
       </c>
@@ -3158,35 +3118,35 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" ht="16" customHeight="1" spans="1:20">
-      <c r="A31" s="63"/>
-      <c r="B31" s="64" t="s">
+      <c r="A31" s="57"/>
+      <c r="B31" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="D31" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="70">
+      <c r="E31" s="64">
         <v>1428</v>
       </c>
-      <c r="F31" s="71">
+      <c r="F31" s="65">
         <v>4100</v>
       </c>
-      <c r="G31" s="72">
+      <c r="G31" s="66">
         <f t="shared" si="1"/>
         <v>42840</v>
       </c>
-      <c r="H31" s="71">
+      <c r="H31" s="65">
         <f t="shared" si="2"/>
         <v>123000</v>
       </c>
-      <c r="I31" s="72">
+      <c r="I31" s="66">
         <f t="shared" si="3"/>
         <v>514080</v>
       </c>
-      <c r="J31" s="71">
+      <c r="J31" s="65">
         <f t="shared" si="4"/>
         <v>1476000</v>
       </c>
@@ -3202,35 +3162,35 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32" ht="16" customHeight="1" spans="1:20">
-      <c r="A32" s="63"/>
-      <c r="B32" s="64" t="s">
+      <c r="A32" s="57"/>
+      <c r="B32" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="70">
+      <c r="E32" s="64">
         <v>1428</v>
       </c>
-      <c r="F32" s="71">
+      <c r="F32" s="65">
         <v>4100</v>
       </c>
-      <c r="G32" s="72">
+      <c r="G32" s="66">
         <f t="shared" si="1"/>
         <v>42840</v>
       </c>
-      <c r="H32" s="71">
+      <c r="H32" s="65">
         <f t="shared" si="2"/>
         <v>123000</v>
       </c>
-      <c r="I32" s="72">
+      <c r="I32" s="66">
         <f t="shared" si="3"/>
         <v>514080</v>
       </c>
-      <c r="J32" s="71">
+      <c r="J32" s="65">
         <f t="shared" si="4"/>
         <v>1476000</v>
       </c>
@@ -3246,35 +3206,35 @@
       <c r="T32" s="1"/>
     </row>
     <row r="33" ht="16" customHeight="1" spans="1:20">
-      <c r="A33" s="63"/>
-      <c r="B33" s="64" t="s">
+      <c r="A33" s="57"/>
+      <c r="B33" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="70">
+      <c r="E33" s="64">
         <v>1428</v>
       </c>
-      <c r="F33" s="71">
+      <c r="F33" s="65">
         <v>4100</v>
       </c>
-      <c r="G33" s="72">
+      <c r="G33" s="66">
         <f t="shared" si="1"/>
         <v>42840</v>
       </c>
-      <c r="H33" s="71">
+      <c r="H33" s="65">
         <f t="shared" si="2"/>
         <v>123000</v>
       </c>
-      <c r="I33" s="72">
+      <c r="I33" s="66">
         <f t="shared" si="3"/>
         <v>514080</v>
       </c>
-      <c r="J33" s="71">
+      <c r="J33" s="65">
         <f t="shared" si="4"/>
         <v>1476000</v>
       </c>
@@ -3290,35 +3250,35 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" ht="16" customHeight="1" spans="1:20">
-      <c r="A34" s="63"/>
-      <c r="B34" s="64" t="s">
+      <c r="A34" s="57"/>
+      <c r="B34" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="70">
+      <c r="E34" s="64">
         <v>235</v>
       </c>
-      <c r="F34" s="71">
+      <c r="F34" s="65">
         <v>4100</v>
       </c>
-      <c r="G34" s="72">
+      <c r="G34" s="66">
         <f t="shared" si="1"/>
         <v>7050</v>
       </c>
-      <c r="H34" s="71">
+      <c r="H34" s="65">
         <f t="shared" si="2"/>
         <v>123000</v>
       </c>
-      <c r="I34" s="72">
+      <c r="I34" s="66">
         <f t="shared" si="3"/>
         <v>84600</v>
       </c>
-      <c r="J34" s="71">
+      <c r="J34" s="65">
         <f t="shared" si="4"/>
         <v>1476000</v>
       </c>
@@ -3334,35 +3294,35 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" ht="16" customHeight="1" spans="1:20">
-      <c r="A35" s="63"/>
-      <c r="B35" s="64" t="s">
+      <c r="A35" s="57"/>
+      <c r="B35" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="D35" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="70">
+      <c r="E35" s="64">
         <v>235</v>
       </c>
-      <c r="F35" s="71">
+      <c r="F35" s="65">
         <v>4100</v>
       </c>
-      <c r="G35" s="72">
+      <c r="G35" s="66">
         <f t="shared" si="1"/>
         <v>7050</v>
       </c>
-      <c r="H35" s="71">
+      <c r="H35" s="65">
         <f t="shared" si="2"/>
         <v>123000</v>
       </c>
-      <c r="I35" s="72">
+      <c r="I35" s="66">
         <f t="shared" si="3"/>
         <v>84600</v>
       </c>
-      <c r="J35" s="71">
+      <c r="J35" s="65">
         <f t="shared" si="4"/>
         <v>1476000</v>
       </c>
@@ -3378,35 +3338,35 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36" ht="16" customHeight="1" spans="1:20">
-      <c r="A36" s="63"/>
-      <c r="B36" s="64" t="s">
+      <c r="A36" s="57"/>
+      <c r="B36" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="70">
+      <c r="E36" s="64">
         <v>235</v>
       </c>
-      <c r="F36" s="71">
+      <c r="F36" s="65">
         <v>4100</v>
       </c>
-      <c r="G36" s="72">
+      <c r="G36" s="66">
         <f t="shared" si="1"/>
         <v>7050</v>
       </c>
-      <c r="H36" s="71">
+      <c r="H36" s="65">
         <f t="shared" si="2"/>
         <v>123000</v>
       </c>
-      <c r="I36" s="72">
+      <c r="I36" s="66">
         <f t="shared" si="3"/>
         <v>84600</v>
       </c>
-      <c r="J36" s="71">
+      <c r="J36" s="65">
         <f t="shared" si="4"/>
         <v>1476000</v>
       </c>
@@ -3422,35 +3382,35 @@
       <c r="T36" s="1"/>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:20">
-      <c r="A37" s="63"/>
-      <c r="B37" s="64" t="s">
+      <c r="A37" s="57"/>
+      <c r="B37" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="70">
+      <c r="E37" s="64">
         <v>434</v>
       </c>
-      <c r="F37" s="71">
+      <c r="F37" s="65">
         <v>4100</v>
       </c>
-      <c r="G37" s="72">
+      <c r="G37" s="66">
         <f t="shared" si="1"/>
         <v>13020</v>
       </c>
-      <c r="H37" s="71">
+      <c r="H37" s="65">
         <f t="shared" si="2"/>
         <v>123000</v>
       </c>
-      <c r="I37" s="72">
+      <c r="I37" s="66">
         <f t="shared" si="3"/>
         <v>156240</v>
       </c>
-      <c r="J37" s="71">
+      <c r="J37" s="65">
         <f t="shared" si="4"/>
         <v>1476000</v>
       </c>
@@ -3466,35 +3426,35 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" ht="16" customHeight="1" spans="1:20">
-      <c r="A38" s="63"/>
-      <c r="B38" s="64" t="s">
+      <c r="A38" s="57"/>
+      <c r="B38" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="44" t="s">
+      <c r="D38" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="70">
+      <c r="E38" s="64">
         <v>435</v>
       </c>
-      <c r="F38" s="71">
+      <c r="F38" s="65">
         <v>4100</v>
       </c>
-      <c r="G38" s="72">
+      <c r="G38" s="66">
         <f t="shared" si="1"/>
         <v>13050</v>
       </c>
-      <c r="H38" s="71">
+      <c r="H38" s="65">
         <f t="shared" si="2"/>
         <v>123000</v>
       </c>
-      <c r="I38" s="72">
+      <c r="I38" s="66">
         <f t="shared" si="3"/>
         <v>156600</v>
       </c>
-      <c r="J38" s="71">
+      <c r="J38" s="65">
         <f t="shared" si="4"/>
         <v>1476000</v>
       </c>
@@ -3510,35 +3470,35 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" ht="16" customHeight="1" spans="1:20">
-      <c r="A39" s="63"/>
-      <c r="B39" s="64" t="s">
+      <c r="A39" s="57"/>
+      <c r="B39" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="70">
+      <c r="E39" s="64">
         <v>436</v>
       </c>
-      <c r="F39" s="71">
+      <c r="F39" s="65">
         <v>4100</v>
       </c>
-      <c r="G39" s="72">
+      <c r="G39" s="66">
         <f t="shared" si="1"/>
         <v>13080</v>
       </c>
-      <c r="H39" s="71">
+      <c r="H39" s="65">
         <f t="shared" si="2"/>
         <v>123000</v>
       </c>
-      <c r="I39" s="72">
+      <c r="I39" s="66">
         <f t="shared" si="3"/>
         <v>156960</v>
       </c>
-      <c r="J39" s="71">
+      <c r="J39" s="65">
         <f t="shared" si="4"/>
         <v>1476000</v>
       </c>
@@ -3554,35 +3514,35 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" ht="16" customHeight="1" spans="1:20">
-      <c r="A40" s="63"/>
-      <c r="B40" s="64" t="s">
+      <c r="A40" s="57"/>
+      <c r="B40" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="70">
+      <c r="E40" s="64">
         <v>2437</v>
       </c>
-      <c r="F40" s="71">
+      <c r="F40" s="65">
         <v>4100</v>
       </c>
-      <c r="G40" s="72">
+      <c r="G40" s="66">
         <f t="shared" si="1"/>
         <v>73110</v>
       </c>
-      <c r="H40" s="71">
+      <c r="H40" s="65">
         <f t="shared" si="2"/>
         <v>123000</v>
       </c>
-      <c r="I40" s="72">
+      <c r="I40" s="66">
         <f t="shared" si="3"/>
         <v>877320</v>
       </c>
-      <c r="J40" s="71">
+      <c r="J40" s="65">
         <f t="shared" si="4"/>
         <v>1476000</v>
       </c>
@@ -3598,35 +3558,35 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" ht="16" customHeight="1" spans="1:20">
-      <c r="A41" s="63"/>
-      <c r="B41" s="64" t="s">
+      <c r="A41" s="57"/>
+      <c r="B41" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="44" t="s">
+      <c r="D41" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="70">
+      <c r="E41" s="64">
         <v>2437</v>
       </c>
-      <c r="F41" s="71">
+      <c r="F41" s="65">
         <v>4100</v>
       </c>
-      <c r="G41" s="72">
+      <c r="G41" s="66">
         <f t="shared" si="1"/>
         <v>73110</v>
       </c>
-      <c r="H41" s="71">
+      <c r="H41" s="65">
         <f t="shared" si="2"/>
         <v>123000</v>
       </c>
-      <c r="I41" s="72">
+      <c r="I41" s="66">
         <f t="shared" si="3"/>
         <v>877320</v>
       </c>
-      <c r="J41" s="71">
+      <c r="J41" s="65">
         <f t="shared" si="4"/>
         <v>1476000</v>
       </c>
@@ -3642,35 +3602,35 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" ht="16" customHeight="1" spans="1:20">
-      <c r="A42" s="63"/>
-      <c r="B42" s="64" t="s">
+      <c r="A42" s="57"/>
+      <c r="B42" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="70">
+      <c r="E42" s="64">
         <v>2437</v>
       </c>
-      <c r="F42" s="71">
+      <c r="F42" s="65">
         <v>4100</v>
       </c>
-      <c r="G42" s="72">
+      <c r="G42" s="66">
         <f t="shared" si="1"/>
         <v>73110</v>
       </c>
-      <c r="H42" s="71">
+      <c r="H42" s="65">
         <f t="shared" si="2"/>
         <v>123000</v>
       </c>
-      <c r="I42" s="72">
+      <c r="I42" s="66">
         <f t="shared" si="3"/>
         <v>877320</v>
       </c>
-      <c r="J42" s="71">
+      <c r="J42" s="65">
         <f t="shared" si="4"/>
         <v>1476000</v>
       </c>
@@ -3686,35 +3646,35 @@
       <c r="T42" s="1"/>
     </row>
     <row r="43" ht="16" customHeight="1" spans="1:20">
-      <c r="A43" s="63"/>
-      <c r="B43" s="64" t="s">
+      <c r="A43" s="57"/>
+      <c r="B43" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="44" t="s">
+      <c r="D43" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="70">
+      <c r="E43" s="64">
         <v>340</v>
       </c>
-      <c r="F43" s="71">
+      <c r="F43" s="65">
         <v>4100</v>
       </c>
-      <c r="G43" s="72">
+      <c r="G43" s="66">
         <f t="shared" si="1"/>
         <v>10200</v>
       </c>
-      <c r="H43" s="71">
+      <c r="H43" s="65">
         <f t="shared" si="2"/>
         <v>123000</v>
       </c>
-      <c r="I43" s="72">
+      <c r="I43" s="66">
         <f t="shared" si="3"/>
         <v>122400</v>
       </c>
-      <c r="J43" s="71">
+      <c r="J43" s="65">
         <f t="shared" si="4"/>
         <v>1476000</v>
       </c>
@@ -3730,35 +3690,35 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" ht="16" customHeight="1" spans="1:20">
-      <c r="A44" s="63"/>
-      <c r="B44" s="64" t="s">
+      <c r="A44" s="57"/>
+      <c r="B44" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="70">
+      <c r="E44" s="64">
         <v>340</v>
       </c>
-      <c r="F44" s="71">
+      <c r="F44" s="65">
         <v>4100</v>
       </c>
-      <c r="G44" s="72">
+      <c r="G44" s="66">
         <f t="shared" si="1"/>
         <v>10200</v>
       </c>
-      <c r="H44" s="71">
+      <c r="H44" s="65">
         <f t="shared" si="2"/>
         <v>123000</v>
       </c>
-      <c r="I44" s="72">
+      <c r="I44" s="66">
         <f t="shared" si="3"/>
         <v>122400</v>
       </c>
-      <c r="J44" s="71">
+      <c r="J44" s="65">
         <f t="shared" si="4"/>
         <v>1476000</v>
       </c>
@@ -3774,35 +3734,35 @@
       <c r="T44" s="1"/>
     </row>
     <row r="45" ht="16" customHeight="1" spans="1:20">
-      <c r="A45" s="63"/>
-      <c r="B45" s="64" t="s">
+      <c r="A45" s="57"/>
+      <c r="B45" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="44" t="s">
+      <c r="D45" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="70">
+      <c r="E45" s="64">
         <v>340</v>
       </c>
-      <c r="F45" s="71">
+      <c r="F45" s="65">
         <v>4100</v>
       </c>
-      <c r="G45" s="72">
+      <c r="G45" s="66">
         <f t="shared" si="1"/>
         <v>10200</v>
       </c>
-      <c r="H45" s="71">
+      <c r="H45" s="65">
         <f t="shared" si="2"/>
         <v>123000</v>
       </c>
-      <c r="I45" s="72">
+      <c r="I45" s="66">
         <f t="shared" si="3"/>
         <v>122400</v>
       </c>
-      <c r="J45" s="71">
+      <c r="J45" s="65">
         <f t="shared" si="4"/>
         <v>1476000</v>
       </c>
@@ -3818,16 +3778,16 @@
       <c r="T45" s="1"/>
     </row>
     <row r="46" customFormat="1" spans="1:20">
-      <c r="A46" s="63"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="76"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="70"/>
       <c r="K46" s="2"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -3840,16 +3800,16 @@
       <c r="T46" s="1"/>
     </row>
     <row r="47" customFormat="1" spans="1:20">
-      <c r="A47" s="63"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="76"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="70"/>
       <c r="K47" s="2"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -3862,16 +3822,16 @@
       <c r="T47" s="1"/>
     </row>
     <row r="48" customFormat="1" ht="14.25" spans="1:20">
-      <c r="A48" s="63"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="82"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="76"/>
       <c r="K48" s="2"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -3884,24 +3844,24 @@
       <c r="T48" s="1"/>
     </row>
     <row r="49" customFormat="1" spans="1:20">
-      <c r="A49" s="83" t="s">
+      <c r="A49" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="84" t="s">
+      <c r="B49" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="85"/>
-      <c r="D49" s="86">
+      <c r="C49" s="78"/>
+      <c r="D49" s="79">
         <v>324</v>
       </c>
-      <c r="E49" s="84" t="s">
+      <c r="E49" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F49" s="87"/>
+      <c r="F49" s="80"/>
       <c r="G49" s="26"/>
       <c r="H49" s="26"/>
       <c r="I49" s="26"/>
-      <c r="J49" s="120"/>
+      <c r="J49" s="113"/>
       <c r="K49" s="2"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -3914,22 +3874,22 @@
       <c r="T49" s="1"/>
     </row>
     <row r="50" customFormat="1" spans="1:20">
-      <c r="A50" s="88"/>
-      <c r="B50" s="44" t="s">
+      <c r="A50" s="81"/>
+      <c r="B50" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="89"/>
-      <c r="D50" s="90">
+      <c r="C50" s="82"/>
+      <c r="D50" s="83">
         <v>42</v>
       </c>
-      <c r="E50" s="44" t="s">
+      <c r="E50" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="91"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="121"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="114"/>
       <c r="K50" s="2"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -3942,22 +3902,22 @@
       <c r="T50" s="1"/>
     </row>
     <row r="51" customFormat="1" spans="1:20">
-      <c r="A51" s="92"/>
-      <c r="B51" s="44" t="s">
+      <c r="A51" s="85"/>
+      <c r="B51" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="89"/>
-      <c r="D51" s="90">
+      <c r="C51" s="82"/>
+      <c r="D51" s="83">
         <v>3</v>
       </c>
-      <c r="E51" s="44" t="s">
+      <c r="E51" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F51" s="91"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="121"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="114"/>
       <c r="K51" s="2"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -3970,24 +3930,24 @@
       <c r="T51" s="1"/>
     </row>
     <row r="52" customFormat="1" spans="1:20">
-      <c r="A52" s="83" t="s">
+      <c r="A52" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="89"/>
-      <c r="D52" s="90">
+      <c r="C52" s="82"/>
+      <c r="D52" s="83">
         <v>124</v>
       </c>
-      <c r="E52" s="44" t="s">
+      <c r="E52" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="91"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="121"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="114"/>
       <c r="K52" s="2"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -4000,22 +3960,22 @@
       <c r="T52" s="1"/>
     </row>
     <row r="53" customFormat="1" spans="1:20">
-      <c r="A53" s="88"/>
-      <c r="B53" s="44" t="s">
+      <c r="A53" s="81"/>
+      <c r="B53" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="89"/>
-      <c r="D53" s="90">
+      <c r="C53" s="82"/>
+      <c r="D53" s="83">
         <v>100</v>
       </c>
-      <c r="E53" s="44" t="s">
+      <c r="E53" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F53" s="91"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="121"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="114"/>
       <c r="K53" s="2"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -4028,22 +3988,22 @@
       <c r="T53" s="1"/>
     </row>
     <row r="54" customFormat="1" spans="1:20">
-      <c r="A54" s="88"/>
-      <c r="B54" s="44" t="s">
+      <c r="A54" s="81"/>
+      <c r="B54" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="89"/>
-      <c r="D54" s="90">
+      <c r="C54" s="82"/>
+      <c r="D54" s="83">
         <v>23</v>
       </c>
-      <c r="E54" s="44" t="s">
+      <c r="E54" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="91"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="121"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="114"/>
       <c r="K54" s="2"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -4056,22 +4016,22 @@
       <c r="T54" s="1"/>
     </row>
     <row r="55" customFormat="1" spans="1:20">
-      <c r="A55" s="88"/>
-      <c r="B55" s="44" t="s">
+      <c r="A55" s="81"/>
+      <c r="B55" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="90">
+      <c r="C55" s="82"/>
+      <c r="D55" s="83">
         <v>1</v>
       </c>
-      <c r="E55" s="44" t="s">
+      <c r="E55" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F55" s="91"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="121"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="114"/>
       <c r="K55" s="2"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -4084,24 +4044,24 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56" customFormat="1" spans="1:20">
-      <c r="A56" s="88"/>
-      <c r="B56" s="44" t="s">
+      <c r="A56" s="81"/>
+      <c r="B56" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="53" t="s">
+      <c r="C56" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="90">
+      <c r="D56" s="83">
         <v>33</v>
       </c>
-      <c r="E56" s="44" t="s">
+      <c r="E56" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="91"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="121"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="114"/>
       <c r="K56" s="2"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -4114,22 +4074,22 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57" customFormat="1" spans="1:20">
-      <c r="A57" s="88"/>
-      <c r="B57" s="44" t="s">
+      <c r="A57" s="81"/>
+      <c r="B57" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="93"/>
-      <c r="D57" s="90">
+      <c r="C57" s="86"/>
+      <c r="D57" s="83">
         <v>33</v>
       </c>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F57" s="91"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="121"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="114"/>
       <c r="K57" s="2"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -4142,22 +4102,22 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" customFormat="1" spans="1:20">
-      <c r="A58" s="88"/>
-      <c r="B58" s="44" t="s">
+      <c r="A58" s="81"/>
+      <c r="B58" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="93"/>
-      <c r="D58" s="90">
+      <c r="C58" s="86"/>
+      <c r="D58" s="83">
         <v>22</v>
       </c>
-      <c r="E58" s="44" t="s">
+      <c r="E58" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F58" s="91"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="121"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="114"/>
       <c r="K58" s="2"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -4170,22 +4130,22 @@
       <c r="T58" s="1"/>
     </row>
     <row r="59" customFormat="1" spans="1:20">
-      <c r="A59" s="92"/>
-      <c r="B59" s="44" t="s">
+      <c r="A59" s="85"/>
+      <c r="B59" s="37" t="s">
         <v>60</v>
       </c>
       <c r="C59" s="26"/>
-      <c r="D59" s="90">
+      <c r="D59" s="83">
         <v>12</v>
       </c>
-      <c r="E59" s="44" t="s">
+      <c r="E59" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F59" s="91"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="121"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="114"/>
       <c r="K59" s="2"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -4198,20 +4158,20 @@
       <c r="T59" s="1"/>
     </row>
     <row r="60" customFormat="1" ht="20" customHeight="1" spans="1:20">
-      <c r="A60" s="83" t="s">
+      <c r="A60" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="94" t="s">
+      <c r="B60" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="95"/>
-      <c r="D60" s="95"/>
-      <c r="E60" s="95"/>
-      <c r="F60" s="95"/>
-      <c r="G60" s="95"/>
-      <c r="H60" s="95"/>
-      <c r="I60" s="95"/>
-      <c r="J60" s="122"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="88"/>
+      <c r="F60" s="88"/>
+      <c r="G60" s="88"/>
+      <c r="H60" s="88"/>
+      <c r="I60" s="88"/>
+      <c r="J60" s="115"/>
       <c r="K60" s="2"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -4224,32 +4184,32 @@
       <c r="T60" s="1"/>
     </row>
     <row r="61" customFormat="1" spans="1:20">
-      <c r="A61" s="88"/>
-      <c r="B61" s="96" t="s">
+      <c r="A61" s="81"/>
+      <c r="B61" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="96" t="s">
+      <c r="C61" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="D61" s="97" t="s">
+      <c r="D61" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="E61" s="96" t="s">
+      <c r="E61" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="F61" s="98" t="s">
+      <c r="F61" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="G61" s="96" t="s">
+      <c r="G61" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="H61" s="96" t="s">
+      <c r="H61" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="I61" s="96" t="s">
+      <c r="I61" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="J61" s="121"/>
+      <c r="J61" s="114"/>
       <c r="K61" s="2"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -4262,32 +4222,32 @@
       <c r="T61" s="1"/>
     </row>
     <row r="62" customFormat="1" spans="1:20">
-      <c r="A62" s="88"/>
-      <c r="B62" s="44" t="s">
+      <c r="A62" s="81"/>
+      <c r="B62" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="44" t="s">
+      <c r="C62" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="90" t="s">
+      <c r="D62" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="E62" s="44" t="s">
+      <c r="E62" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="F62" s="99" t="s">
+      <c r="F62" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="G62" s="100">
+      <c r="G62" s="93">
         <v>45366</v>
       </c>
-      <c r="H62" s="99" t="s">
+      <c r="H62" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="I62" s="44" t="s">
+      <c r="I62" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J62" s="121"/>
+      <c r="J62" s="114"/>
       <c r="K62" s="2"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -4300,32 +4260,32 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63" customFormat="1" ht="27" spans="1:20">
-      <c r="A63" s="88"/>
-      <c r="B63" s="101" t="s">
+      <c r="A63" s="81"/>
+      <c r="B63" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D63" s="90" t="s">
+      <c r="D63" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="E63" s="44" t="s">
+      <c r="E63" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="F63" s="99" t="s">
+      <c r="F63" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="G63" s="100">
+      <c r="G63" s="93">
         <v>45365</v>
       </c>
-      <c r="H63" s="99" t="s">
+      <c r="H63" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="I63" s="44" t="s">
+      <c r="I63" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="J63" s="121"/>
+      <c r="J63" s="114"/>
       <c r="K63" s="2"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -4338,32 +4298,32 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:20">
-      <c r="A64" s="88"/>
-      <c r="B64" s="44" t="s">
+      <c r="A64" s="81"/>
+      <c r="B64" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="44" t="s">
+      <c r="C64" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D64" s="90" t="s">
+      <c r="D64" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="E64" s="44" t="s">
+      <c r="E64" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="F64" s="99" t="s">
+      <c r="F64" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="G64" s="100">
+      <c r="G64" s="93">
         <v>45365</v>
       </c>
-      <c r="H64" s="99" t="s">
+      <c r="H64" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="I64" s="44" t="s">
+      <c r="I64" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="J64" s="121"/>
+      <c r="J64" s="114"/>
       <c r="K64" s="2"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -4376,32 +4336,32 @@
       <c r="T64" s="1"/>
     </row>
     <row r="65" spans="1:20">
-      <c r="A65" s="88"/>
-      <c r="B65" s="44" t="s">
+      <c r="A65" s="81"/>
+      <c r="B65" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C65" s="44" t="s">
+      <c r="C65" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="90" t="s">
+      <c r="D65" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="E65" s="44" t="s">
+      <c r="E65" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="F65" s="99" t="s">
+      <c r="F65" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="G65" s="100">
+      <c r="G65" s="93">
         <v>45364</v>
       </c>
-      <c r="H65" s="99" t="s">
+      <c r="H65" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="I65" s="44" t="s">
+      <c r="I65" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="J65" s="121"/>
+      <c r="J65" s="114"/>
       <c r="K65" s="2"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -4414,32 +4374,32 @@
       <c r="T65" s="1"/>
     </row>
     <row r="66" ht="14.25" spans="1:20">
-      <c r="A66" s="124"/>
-      <c r="B66" s="125" t="s">
+      <c r="A66" s="117"/>
+      <c r="B66" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="125" t="s">
+      <c r="C66" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="126" t="s">
+      <c r="D66" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="E66" s="125" t="s">
+      <c r="E66" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="F66" s="127" t="s">
+      <c r="F66" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="G66" s="128">
+      <c r="G66" s="121">
         <v>45364</v>
       </c>
-      <c r="H66" s="127" t="s">
+      <c r="H66" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="I66" s="125" t="s">
+      <c r="I66" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="J66" s="133"/>
+      <c r="J66" s="125"/>
       <c r="K66" s="2"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -4452,17 +4412,17 @@
       <c r="T66" s="1"/>
     </row>
     <row r="67" s="4" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A67" s="129"/>
-      <c r="B67" s="130"/>
-      <c r="C67" s="130"/>
-      <c r="D67" s="131"/>
-      <c r="E67" s="130"/>
-      <c r="F67" s="132"/>
-      <c r="G67" s="130"/>
-      <c r="H67" s="130"/>
-      <c r="I67" s="130"/>
-      <c r="J67" s="134"/>
-      <c r="K67" s="135"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="122"/>
+      <c r="C67" s="122"/>
+      <c r="D67" s="123"/>
+      <c r="E67" s="122"/>
+      <c r="F67" s="124"/>
+      <c r="G67" s="122"/>
+      <c r="H67" s="122"/>
+      <c r="I67" s="122"/>
+      <c r="J67" s="122"/>
+      <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -4474,17 +4434,17 @@
       <c r="T67" s="1"/>
     </row>
     <row r="68" s="4" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A68" s="129"/>
-      <c r="B68" s="130"/>
-      <c r="C68" s="130"/>
-      <c r="D68" s="131"/>
-      <c r="E68" s="130"/>
-      <c r="F68" s="132"/>
-      <c r="G68" s="130"/>
-      <c r="H68" s="130"/>
-      <c r="I68" s="130"/>
-      <c r="J68" s="134"/>
-      <c r="K68" s="135"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="122"/>
+      <c r="C68" s="122"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="122"/>
+      <c r="F68" s="124"/>
+      <c r="G68" s="122"/>
+      <c r="H68" s="122"/>
+      <c r="I68" s="122"/>
+      <c r="J68" s="122"/>
+      <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -4496,17 +4456,17 @@
       <c r="T68" s="1"/>
     </row>
     <row r="69" s="4" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A69" s="129"/>
-      <c r="B69" s="130"/>
-      <c r="C69" s="130"/>
-      <c r="D69" s="131"/>
-      <c r="E69" s="130"/>
-      <c r="F69" s="132"/>
-      <c r="G69" s="130"/>
-      <c r="H69" s="130"/>
-      <c r="I69" s="130"/>
-      <c r="J69" s="134"/>
-      <c r="K69" s="135"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="122"/>
+      <c r="C69" s="122"/>
+      <c r="D69" s="123"/>
+      <c r="E69" s="122"/>
+      <c r="F69" s="124"/>
+      <c r="G69" s="122"/>
+      <c r="H69" s="122"/>
+      <c r="I69" s="122"/>
+      <c r="J69" s="122"/>
+      <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -5742,16 +5702,16 @@
       <c r="T171" s="1"/>
     </row>
     <row r="1048576" ht="14.25" hidden="1" spans="1:10">
-      <c r="A1048576" s="136"/>
-      <c r="B1048576" s="137"/>
-      <c r="C1048576" s="137"/>
-      <c r="D1048576" s="138"/>
-      <c r="E1048576" s="137"/>
-      <c r="F1048576" s="139"/>
-      <c r="G1048576" s="137"/>
-      <c r="H1048576" s="137"/>
-      <c r="I1048576" s="137"/>
-      <c r="J1048576" s="140"/>
+      <c r="A1048576" s="126"/>
+      <c r="B1048576" s="127"/>
+      <c r="C1048576" s="127"/>
+      <c r="D1048576" s="128"/>
+      <c r="E1048576" s="127"/>
+      <c r="F1048576" s="129"/>
+      <c r="G1048576" s="127"/>
+      <c r="H1048576" s="127"/>
+      <c r="I1048576" s="127"/>
+      <c r="J1048576" s="130"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
